--- a/Projects/SANOFIHK/Data/Template.xlsx
+++ b/Projects/SANOFIHK/Data/Template.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$7</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$7</definedName>
@@ -28,10 +28,13 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$7</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$B$4:$H$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$B$3:$H$24</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
@@ -41,15 +44,18 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -61,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t>KPI Name</t>
   </si>
@@ -108,10 +114,19 @@
     <t>Primary_Brand_Blocking</t>
   </si>
   <si>
+    <t>Product Minimum Facings Primary</t>
+  </si>
+  <si>
+    <t>Primary&amp;Secondary_Facings</t>
+  </si>
+  <si>
     <t>POSM Availability Secondary</t>
   </si>
   <si>
     <t>Secondary Shelf</t>
+  </si>
+  <si>
+    <t>Product Minimum Facings Secondary</t>
   </si>
   <si>
     <t>MSL Compliance</t>
@@ -198,6 +213,15 @@
     <t>Ignore empty</t>
   </si>
   <si>
+    <t>Ducolax,Essenstiale</t>
+  </si>
+  <si>
+    <t>ESSENTIALE 60 Capsules,DULCOLAX 30 Tablets</t>
+  </si>
+  <si>
+    <t>4891609702053,4891612591514,POSM_001</t>
+  </si>
+  <si>
     <t>Display Rack</t>
   </si>
   <si>
@@ -211,12 +235,6 @@
   </si>
   <si>
     <t>POSM_002</t>
-  </si>
-  <si>
-    <t>Product Minimum Facings Primary</t>
-  </si>
-  <si>
-    <t>Product Minimum Facings Secondary</t>
   </si>
 </sst>
 </file>
@@ -424,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="31">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -615,9 +633,9 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+      <left/>
       <right/>
-      <top/>
+      <top style="medium"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -631,20 +649,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
       <top style="medium"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -686,7 +690,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -887,20 +891,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -943,10 +939,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -955,7 +947,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1065,20 +1057,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.497975708502"/>
   </cols>
   <sheetData>
@@ -1151,107 +1143,149 @@
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>16</v>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1275,19 +1309,19 @@
   <dimension ref="1:7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="19" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="19" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="19" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="19" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="19" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="19" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="1023" min="9" style="19" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -1300,7 +1334,7 @@
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
       <c r="G1" s="25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="0"/>
@@ -2324,25 +2358,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
@@ -3362,19 +3396,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" s="34" t="n">
         <v>4891609702053</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="38" t="n">
@@ -4401,19 +4435,19 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="40" t="n">
         <v>4891612591514</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="43" t="n">
@@ -5440,19 +5474,19 @@
     </row>
     <row r="5" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" s="40" t="n">
         <v>4891612591521</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="43" t="n">
@@ -5465,19 +5499,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" s="40" t="n">
         <v>4891609810000</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="43" t="n">
@@ -5489,19 +5523,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" s="40" t="n">
         <v>4891609040032</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="43" t="n">
@@ -5544,11 +5578,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="19" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="19" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="19" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="19" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="19" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="19" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="19" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="19" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="19" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="19" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5559,7 +5593,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
@@ -5569,25 +5603,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5613,19 +5647,19 @@
   <dimension ref="A1:AMH3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="19" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="19" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="19" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="9" style="19" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
   </cols>
@@ -5638,7 +5672,7 @@
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="0"/>
@@ -6661,25 +6695,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" s="49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
@@ -7700,1027 +7734,27 @@
       <c r="A3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
-      <c r="AA3" s="0"/>
-      <c r="AB3" s="0"/>
-      <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0"/>
-      <c r="AF3" s="0"/>
-      <c r="AG3" s="0"/>
-      <c r="AH3" s="0"/>
-      <c r="AI3" s="0"/>
-      <c r="AJ3" s="0"/>
-      <c r="AK3" s="0"/>
-      <c r="AL3" s="0"/>
-      <c r="AM3" s="0"/>
-      <c r="AN3" s="0"/>
-      <c r="AO3" s="0"/>
-      <c r="AP3" s="0"/>
-      <c r="AQ3" s="0"/>
-      <c r="AR3" s="0"/>
-      <c r="AS3" s="0"/>
-      <c r="AT3" s="0"/>
-      <c r="AU3" s="0"/>
-      <c r="AV3" s="0"/>
-      <c r="AW3" s="0"/>
-      <c r="AX3" s="0"/>
-      <c r="AY3" s="0"/>
-      <c r="AZ3" s="0"/>
-      <c r="BA3" s="0"/>
-      <c r="BB3" s="0"/>
-      <c r="BC3" s="0"/>
-      <c r="BD3" s="0"/>
-      <c r="BE3" s="0"/>
-      <c r="BF3" s="0"/>
-      <c r="BG3" s="0"/>
-      <c r="BH3" s="0"/>
-      <c r="BI3" s="0"/>
-      <c r="BJ3" s="0"/>
-      <c r="BK3" s="0"/>
-      <c r="BL3" s="0"/>
-      <c r="BM3" s="0"/>
-      <c r="BN3" s="0"/>
-      <c r="BO3" s="0"/>
-      <c r="BP3" s="0"/>
-      <c r="BQ3" s="0"/>
-      <c r="BR3" s="0"/>
-      <c r="BS3" s="0"/>
-      <c r="BT3" s="0"/>
-      <c r="BU3" s="0"/>
-      <c r="BV3" s="0"/>
-      <c r="BW3" s="0"/>
-      <c r="BX3" s="0"/>
-      <c r="BY3" s="0"/>
-      <c r="BZ3" s="0"/>
-      <c r="CA3" s="0"/>
-      <c r="CB3" s="0"/>
-      <c r="CC3" s="0"/>
-      <c r="CD3" s="0"/>
-      <c r="CE3" s="0"/>
-      <c r="CF3" s="0"/>
-      <c r="CG3" s="0"/>
-      <c r="CH3" s="0"/>
-      <c r="CI3" s="0"/>
-      <c r="CJ3" s="0"/>
-      <c r="CK3" s="0"/>
-      <c r="CL3" s="0"/>
-      <c r="CM3" s="0"/>
-      <c r="CN3" s="0"/>
-      <c r="CO3" s="0"/>
-      <c r="CP3" s="0"/>
-      <c r="CQ3" s="0"/>
-      <c r="CR3" s="0"/>
-      <c r="CS3" s="0"/>
-      <c r="CT3" s="0"/>
-      <c r="CU3" s="0"/>
-      <c r="CV3" s="0"/>
-      <c r="CW3" s="0"/>
-      <c r="CX3" s="0"/>
-      <c r="CY3" s="0"/>
-      <c r="CZ3" s="0"/>
-      <c r="DA3" s="0"/>
-      <c r="DB3" s="0"/>
-      <c r="DC3" s="0"/>
-      <c r="DD3" s="0"/>
-      <c r="DE3" s="0"/>
-      <c r="DF3" s="0"/>
-      <c r="DG3" s="0"/>
-      <c r="DH3" s="0"/>
-      <c r="DI3" s="0"/>
-      <c r="DJ3" s="0"/>
-      <c r="DK3" s="0"/>
-      <c r="DL3" s="0"/>
-      <c r="DM3" s="0"/>
-      <c r="DN3" s="0"/>
-      <c r="DO3" s="0"/>
-      <c r="DP3" s="0"/>
-      <c r="DQ3" s="0"/>
-      <c r="DR3" s="0"/>
-      <c r="DS3" s="0"/>
-      <c r="DT3" s="0"/>
-      <c r="DU3" s="0"/>
-      <c r="DV3" s="0"/>
-      <c r="DW3" s="0"/>
-      <c r="DX3" s="0"/>
-      <c r="DY3" s="0"/>
-      <c r="DZ3" s="0"/>
-      <c r="EA3" s="0"/>
-      <c r="EB3" s="0"/>
-      <c r="EC3" s="0"/>
-      <c r="ED3" s="0"/>
-      <c r="EE3" s="0"/>
-      <c r="EF3" s="0"/>
-      <c r="EG3" s="0"/>
-      <c r="EH3" s="0"/>
-      <c r="EI3" s="0"/>
-      <c r="EJ3" s="0"/>
-      <c r="EK3" s="0"/>
-      <c r="EL3" s="0"/>
-      <c r="EM3" s="0"/>
-      <c r="EN3" s="0"/>
-      <c r="EO3" s="0"/>
-      <c r="EP3" s="0"/>
-      <c r="EQ3" s="0"/>
-      <c r="ER3" s="0"/>
-      <c r="ES3" s="0"/>
-      <c r="ET3" s="0"/>
-      <c r="EU3" s="0"/>
-      <c r="EV3" s="0"/>
-      <c r="EW3" s="0"/>
-      <c r="EX3" s="0"/>
-      <c r="EY3" s="0"/>
-      <c r="EZ3" s="0"/>
-      <c r="FA3" s="0"/>
-      <c r="FB3" s="0"/>
-      <c r="FC3" s="0"/>
-      <c r="FD3" s="0"/>
-      <c r="FE3" s="0"/>
-      <c r="FF3" s="0"/>
-      <c r="FG3" s="0"/>
-      <c r="FH3" s="0"/>
-      <c r="FI3" s="0"/>
-      <c r="FJ3" s="0"/>
-      <c r="FK3" s="0"/>
-      <c r="FL3" s="0"/>
-      <c r="FM3" s="0"/>
-      <c r="FN3" s="0"/>
-      <c r="FO3" s="0"/>
-      <c r="FP3" s="0"/>
-      <c r="FQ3" s="0"/>
-      <c r="FR3" s="0"/>
-      <c r="FS3" s="0"/>
-      <c r="FT3" s="0"/>
-      <c r="FU3" s="0"/>
-      <c r="FV3" s="0"/>
-      <c r="FW3" s="0"/>
-      <c r="FX3" s="0"/>
-      <c r="FY3" s="0"/>
-      <c r="FZ3" s="0"/>
-      <c r="GA3" s="0"/>
-      <c r="GB3" s="0"/>
-      <c r="GC3" s="0"/>
-      <c r="GD3" s="0"/>
-      <c r="GE3" s="0"/>
-      <c r="GF3" s="0"/>
-      <c r="GG3" s="0"/>
-      <c r="GH3" s="0"/>
-      <c r="GI3" s="0"/>
-      <c r="GJ3" s="0"/>
-      <c r="GK3" s="0"/>
-      <c r="GL3" s="0"/>
-      <c r="GM3" s="0"/>
-      <c r="GN3" s="0"/>
-      <c r="GO3" s="0"/>
-      <c r="GP3" s="0"/>
-      <c r="GQ3" s="0"/>
-      <c r="GR3" s="0"/>
-      <c r="GS3" s="0"/>
-      <c r="GT3" s="0"/>
-      <c r="GU3" s="0"/>
-      <c r="GV3" s="0"/>
-      <c r="GW3" s="0"/>
-      <c r="GX3" s="0"/>
-      <c r="GY3" s="0"/>
-      <c r="GZ3" s="0"/>
-      <c r="HA3" s="0"/>
-      <c r="HB3" s="0"/>
-      <c r="HC3" s="0"/>
-      <c r="HD3" s="0"/>
-      <c r="HE3" s="0"/>
-      <c r="HF3" s="0"/>
-      <c r="HG3" s="0"/>
-      <c r="HH3" s="0"/>
-      <c r="HI3" s="0"/>
-      <c r="HJ3" s="0"/>
-      <c r="HK3" s="0"/>
-      <c r="HL3" s="0"/>
-      <c r="HM3" s="0"/>
-      <c r="HN3" s="0"/>
-      <c r="HO3" s="0"/>
-      <c r="HP3" s="0"/>
-      <c r="HQ3" s="0"/>
-      <c r="HR3" s="0"/>
-      <c r="HS3" s="0"/>
-      <c r="HT3" s="0"/>
-      <c r="HU3" s="0"/>
-      <c r="HV3" s="0"/>
-      <c r="HW3" s="0"/>
-      <c r="HX3" s="0"/>
-      <c r="HY3" s="0"/>
-      <c r="HZ3" s="0"/>
-      <c r="IA3" s="0"/>
-      <c r="IB3" s="0"/>
-      <c r="IC3" s="0"/>
-      <c r="ID3" s="0"/>
-      <c r="IE3" s="0"/>
-      <c r="IF3" s="0"/>
-      <c r="IG3" s="0"/>
-      <c r="IH3" s="0"/>
-      <c r="II3" s="0"/>
-      <c r="IJ3" s="0"/>
-      <c r="IK3" s="0"/>
-      <c r="IL3" s="0"/>
-      <c r="IM3" s="0"/>
-      <c r="IN3" s="0"/>
-      <c r="IO3" s="0"/>
-      <c r="IP3" s="0"/>
-      <c r="IQ3" s="0"/>
-      <c r="IR3" s="0"/>
-      <c r="IS3" s="0"/>
-      <c r="IT3" s="0"/>
-      <c r="IU3" s="0"/>
-      <c r="IV3" s="0"/>
-      <c r="IW3" s="0"/>
-      <c r="IX3" s="0"/>
-      <c r="IY3" s="0"/>
-      <c r="IZ3" s="0"/>
-      <c r="JA3" s="0"/>
-      <c r="JB3" s="0"/>
-      <c r="JC3" s="0"/>
-      <c r="JD3" s="0"/>
-      <c r="JE3" s="0"/>
-      <c r="JF3" s="0"/>
-      <c r="JG3" s="0"/>
-      <c r="JH3" s="0"/>
-      <c r="JI3" s="0"/>
-      <c r="JJ3" s="0"/>
-      <c r="JK3" s="0"/>
-      <c r="JL3" s="0"/>
-      <c r="JM3" s="0"/>
-      <c r="JN3" s="0"/>
-      <c r="JO3" s="0"/>
-      <c r="JP3" s="0"/>
-      <c r="JQ3" s="0"/>
-      <c r="JR3" s="0"/>
-      <c r="JS3" s="0"/>
-      <c r="JT3" s="0"/>
-      <c r="JU3" s="0"/>
-      <c r="JV3" s="0"/>
-      <c r="JW3" s="0"/>
-      <c r="JX3" s="0"/>
-      <c r="JY3" s="0"/>
-      <c r="JZ3" s="0"/>
-      <c r="KA3" s="0"/>
-      <c r="KB3" s="0"/>
-      <c r="KC3" s="0"/>
-      <c r="KD3" s="0"/>
-      <c r="KE3" s="0"/>
-      <c r="KF3" s="0"/>
-      <c r="KG3" s="0"/>
-      <c r="KH3" s="0"/>
-      <c r="KI3" s="0"/>
-      <c r="KJ3" s="0"/>
-      <c r="KK3" s="0"/>
-      <c r="KL3" s="0"/>
-      <c r="KM3" s="0"/>
-      <c r="KN3" s="0"/>
-      <c r="KO3" s="0"/>
-      <c r="KP3" s="0"/>
-      <c r="KQ3" s="0"/>
-      <c r="KR3" s="0"/>
-      <c r="KS3" s="0"/>
-      <c r="KT3" s="0"/>
-      <c r="KU3" s="0"/>
-      <c r="KV3" s="0"/>
-      <c r="KW3" s="0"/>
-      <c r="KX3" s="0"/>
-      <c r="KY3" s="0"/>
-      <c r="KZ3" s="0"/>
-      <c r="LA3" s="0"/>
-      <c r="LB3" s="0"/>
-      <c r="LC3" s="0"/>
-      <c r="LD3" s="0"/>
-      <c r="LE3" s="0"/>
-      <c r="LF3" s="0"/>
-      <c r="LG3" s="0"/>
-      <c r="LH3" s="0"/>
-      <c r="LI3" s="0"/>
-      <c r="LJ3" s="0"/>
-      <c r="LK3" s="0"/>
-      <c r="LL3" s="0"/>
-      <c r="LM3" s="0"/>
-      <c r="LN3" s="0"/>
-      <c r="LO3" s="0"/>
-      <c r="LP3" s="0"/>
-      <c r="LQ3" s="0"/>
-      <c r="LR3" s="0"/>
-      <c r="LS3" s="0"/>
-      <c r="LT3" s="0"/>
-      <c r="LU3" s="0"/>
-      <c r="LV3" s="0"/>
-      <c r="LW3" s="0"/>
-      <c r="LX3" s="0"/>
-      <c r="LY3" s="0"/>
-      <c r="LZ3" s="0"/>
-      <c r="MA3" s="0"/>
-      <c r="MB3" s="0"/>
-      <c r="MC3" s="0"/>
-      <c r="MD3" s="0"/>
-      <c r="ME3" s="0"/>
-      <c r="MF3" s="0"/>
-      <c r="MG3" s="0"/>
-      <c r="MH3" s="0"/>
-      <c r="MI3" s="0"/>
-      <c r="MJ3" s="0"/>
-      <c r="MK3" s="0"/>
-      <c r="ML3" s="0"/>
-      <c r="MM3" s="0"/>
-      <c r="MN3" s="0"/>
-      <c r="MO3" s="0"/>
-      <c r="MP3" s="0"/>
-      <c r="MQ3" s="0"/>
-      <c r="MR3" s="0"/>
-      <c r="MS3" s="0"/>
-      <c r="MT3" s="0"/>
-      <c r="MU3" s="0"/>
-      <c r="MV3" s="0"/>
-      <c r="MW3" s="0"/>
-      <c r="MX3" s="0"/>
-      <c r="MY3" s="0"/>
-      <c r="MZ3" s="0"/>
-      <c r="NA3" s="0"/>
-      <c r="NB3" s="0"/>
-      <c r="NC3" s="0"/>
-      <c r="ND3" s="0"/>
-      <c r="NE3" s="0"/>
-      <c r="NF3" s="0"/>
-      <c r="NG3" s="0"/>
-      <c r="NH3" s="0"/>
-      <c r="NI3" s="0"/>
-      <c r="NJ3" s="0"/>
-      <c r="NK3" s="0"/>
-      <c r="NL3" s="0"/>
-      <c r="NM3" s="0"/>
-      <c r="NN3" s="0"/>
-      <c r="NO3" s="0"/>
-      <c r="NP3" s="0"/>
-      <c r="NQ3" s="0"/>
-      <c r="NR3" s="0"/>
-      <c r="NS3" s="0"/>
-      <c r="NT3" s="0"/>
-      <c r="NU3" s="0"/>
-      <c r="NV3" s="0"/>
-      <c r="NW3" s="0"/>
-      <c r="NX3" s="0"/>
-      <c r="NY3" s="0"/>
-      <c r="NZ3" s="0"/>
-      <c r="OA3" s="0"/>
-      <c r="OB3" s="0"/>
-      <c r="OC3" s="0"/>
-      <c r="OD3" s="0"/>
-      <c r="OE3" s="0"/>
-      <c r="OF3" s="0"/>
-      <c r="OG3" s="0"/>
-      <c r="OH3" s="0"/>
-      <c r="OI3" s="0"/>
-      <c r="OJ3" s="0"/>
-      <c r="OK3" s="0"/>
-      <c r="OL3" s="0"/>
-      <c r="OM3" s="0"/>
-      <c r="ON3" s="0"/>
-      <c r="OO3" s="0"/>
-      <c r="OP3" s="0"/>
-      <c r="OQ3" s="0"/>
-      <c r="OR3" s="0"/>
-      <c r="OS3" s="0"/>
-      <c r="OT3" s="0"/>
-      <c r="OU3" s="0"/>
-      <c r="OV3" s="0"/>
-      <c r="OW3" s="0"/>
-      <c r="OX3" s="0"/>
-      <c r="OY3" s="0"/>
-      <c r="OZ3" s="0"/>
-      <c r="PA3" s="0"/>
-      <c r="PB3" s="0"/>
-      <c r="PC3" s="0"/>
-      <c r="PD3" s="0"/>
-      <c r="PE3" s="0"/>
-      <c r="PF3" s="0"/>
-      <c r="PG3" s="0"/>
-      <c r="PH3" s="0"/>
-      <c r="PI3" s="0"/>
-      <c r="PJ3" s="0"/>
-      <c r="PK3" s="0"/>
-      <c r="PL3" s="0"/>
-      <c r="PM3" s="0"/>
-      <c r="PN3" s="0"/>
-      <c r="PO3" s="0"/>
-      <c r="PP3" s="0"/>
-      <c r="PQ3" s="0"/>
-      <c r="PR3" s="0"/>
-      <c r="PS3" s="0"/>
-      <c r="PT3" s="0"/>
-      <c r="PU3" s="0"/>
-      <c r="PV3" s="0"/>
-      <c r="PW3" s="0"/>
-      <c r="PX3" s="0"/>
-      <c r="PY3" s="0"/>
-      <c r="PZ3" s="0"/>
-      <c r="QA3" s="0"/>
-      <c r="QB3" s="0"/>
-      <c r="QC3" s="0"/>
-      <c r="QD3" s="0"/>
-      <c r="QE3" s="0"/>
-      <c r="QF3" s="0"/>
-      <c r="QG3" s="0"/>
-      <c r="QH3" s="0"/>
-      <c r="QI3" s="0"/>
-      <c r="QJ3" s="0"/>
-      <c r="QK3" s="0"/>
-      <c r="QL3" s="0"/>
-      <c r="QM3" s="0"/>
-      <c r="QN3" s="0"/>
-      <c r="QO3" s="0"/>
-      <c r="QP3" s="0"/>
-      <c r="QQ3" s="0"/>
-      <c r="QR3" s="0"/>
-      <c r="QS3" s="0"/>
-      <c r="QT3" s="0"/>
-      <c r="QU3" s="0"/>
-      <c r="QV3" s="0"/>
-      <c r="QW3" s="0"/>
-      <c r="QX3" s="0"/>
-      <c r="QY3" s="0"/>
-      <c r="QZ3" s="0"/>
-      <c r="RA3" s="0"/>
-      <c r="RB3" s="0"/>
-      <c r="RC3" s="0"/>
-      <c r="RD3" s="0"/>
-      <c r="RE3" s="0"/>
-      <c r="RF3" s="0"/>
-      <c r="RG3" s="0"/>
-      <c r="RH3" s="0"/>
-      <c r="RI3" s="0"/>
-      <c r="RJ3" s="0"/>
-      <c r="RK3" s="0"/>
-      <c r="RL3" s="0"/>
-      <c r="RM3" s="0"/>
-      <c r="RN3" s="0"/>
-      <c r="RO3" s="0"/>
-      <c r="RP3" s="0"/>
-      <c r="RQ3" s="0"/>
-      <c r="RR3" s="0"/>
-      <c r="RS3" s="0"/>
-      <c r="RT3" s="0"/>
-      <c r="RU3" s="0"/>
-      <c r="RV3" s="0"/>
-      <c r="RW3" s="0"/>
-      <c r="RX3" s="0"/>
-      <c r="RY3" s="0"/>
-      <c r="RZ3" s="0"/>
-      <c r="SA3" s="0"/>
-      <c r="SB3" s="0"/>
-      <c r="SC3" s="0"/>
-      <c r="SD3" s="0"/>
-      <c r="SE3" s="0"/>
-      <c r="SF3" s="0"/>
-      <c r="SG3" s="0"/>
-      <c r="SH3" s="0"/>
-      <c r="SI3" s="0"/>
-      <c r="SJ3" s="0"/>
-      <c r="SK3" s="0"/>
-      <c r="SL3" s="0"/>
-      <c r="SM3" s="0"/>
-      <c r="SN3" s="0"/>
-      <c r="SO3" s="0"/>
-      <c r="SP3" s="0"/>
-      <c r="SQ3" s="0"/>
-      <c r="SR3" s="0"/>
-      <c r="SS3" s="0"/>
-      <c r="ST3" s="0"/>
-      <c r="SU3" s="0"/>
-      <c r="SV3" s="0"/>
-      <c r="SW3" s="0"/>
-      <c r="SX3" s="0"/>
-      <c r="SY3" s="0"/>
-      <c r="SZ3" s="0"/>
-      <c r="TA3" s="0"/>
-      <c r="TB3" s="0"/>
-      <c r="TC3" s="0"/>
-      <c r="TD3" s="0"/>
-      <c r="TE3" s="0"/>
-      <c r="TF3" s="0"/>
-      <c r="TG3" s="0"/>
-      <c r="TH3" s="0"/>
-      <c r="TI3" s="0"/>
-      <c r="TJ3" s="0"/>
-      <c r="TK3" s="0"/>
-      <c r="TL3" s="0"/>
-      <c r="TM3" s="0"/>
-      <c r="TN3" s="0"/>
-      <c r="TO3" s="0"/>
-      <c r="TP3" s="0"/>
-      <c r="TQ3" s="0"/>
-      <c r="TR3" s="0"/>
-      <c r="TS3" s="0"/>
-      <c r="TT3" s="0"/>
-      <c r="TU3" s="0"/>
-      <c r="TV3" s="0"/>
-      <c r="TW3" s="0"/>
-      <c r="TX3" s="0"/>
-      <c r="TY3" s="0"/>
-      <c r="TZ3" s="0"/>
-      <c r="UA3" s="0"/>
-      <c r="UB3" s="0"/>
-      <c r="UC3" s="0"/>
-      <c r="UD3" s="0"/>
-      <c r="UE3" s="0"/>
-      <c r="UF3" s="0"/>
-      <c r="UG3" s="0"/>
-      <c r="UH3" s="0"/>
-      <c r="UI3" s="0"/>
-      <c r="UJ3" s="0"/>
-      <c r="UK3" s="0"/>
-      <c r="UL3" s="0"/>
-      <c r="UM3" s="0"/>
-      <c r="UN3" s="0"/>
-      <c r="UO3" s="0"/>
-      <c r="UP3" s="0"/>
-      <c r="UQ3" s="0"/>
-      <c r="UR3" s="0"/>
-      <c r="US3" s="0"/>
-      <c r="UT3" s="0"/>
-      <c r="UU3" s="0"/>
-      <c r="UV3" s="0"/>
-      <c r="UW3" s="0"/>
-      <c r="UX3" s="0"/>
-      <c r="UY3" s="0"/>
-      <c r="UZ3" s="0"/>
-      <c r="VA3" s="0"/>
-      <c r="VB3" s="0"/>
-      <c r="VC3" s="0"/>
-      <c r="VD3" s="0"/>
-      <c r="VE3" s="0"/>
-      <c r="VF3" s="0"/>
-      <c r="VG3" s="0"/>
-      <c r="VH3" s="0"/>
-      <c r="VI3" s="0"/>
-      <c r="VJ3" s="0"/>
-      <c r="VK3" s="0"/>
-      <c r="VL3" s="0"/>
-      <c r="VM3" s="0"/>
-      <c r="VN3" s="0"/>
-      <c r="VO3" s="0"/>
-      <c r="VP3" s="0"/>
-      <c r="VQ3" s="0"/>
-      <c r="VR3" s="0"/>
-      <c r="VS3" s="0"/>
-      <c r="VT3" s="0"/>
-      <c r="VU3" s="0"/>
-      <c r="VV3" s="0"/>
-      <c r="VW3" s="0"/>
-      <c r="VX3" s="0"/>
-      <c r="VY3" s="0"/>
-      <c r="VZ3" s="0"/>
-      <c r="WA3" s="0"/>
-      <c r="WB3" s="0"/>
-      <c r="WC3" s="0"/>
-      <c r="WD3" s="0"/>
-      <c r="WE3" s="0"/>
-      <c r="WF3" s="0"/>
-      <c r="WG3" s="0"/>
-      <c r="WH3" s="0"/>
-      <c r="WI3" s="0"/>
-      <c r="WJ3" s="0"/>
-      <c r="WK3" s="0"/>
-      <c r="WL3" s="0"/>
-      <c r="WM3" s="0"/>
-      <c r="WN3" s="0"/>
-      <c r="WO3" s="0"/>
-      <c r="WP3" s="0"/>
-      <c r="WQ3" s="0"/>
-      <c r="WR3" s="0"/>
-      <c r="WS3" s="0"/>
-      <c r="WT3" s="0"/>
-      <c r="WU3" s="0"/>
-      <c r="WV3" s="0"/>
-      <c r="WW3" s="0"/>
-      <c r="WX3" s="0"/>
-      <c r="WY3" s="0"/>
-      <c r="WZ3" s="0"/>
-      <c r="XA3" s="0"/>
-      <c r="XB3" s="0"/>
-      <c r="XC3" s="0"/>
-      <c r="XD3" s="0"/>
-      <c r="XE3" s="0"/>
-      <c r="XF3" s="0"/>
-      <c r="XG3" s="0"/>
-      <c r="XH3" s="0"/>
-      <c r="XI3" s="0"/>
-      <c r="XJ3" s="0"/>
-      <c r="XK3" s="0"/>
-      <c r="XL3" s="0"/>
-      <c r="XM3" s="0"/>
-      <c r="XN3" s="0"/>
-      <c r="XO3" s="0"/>
-      <c r="XP3" s="0"/>
-      <c r="XQ3" s="0"/>
-      <c r="XR3" s="0"/>
-      <c r="XS3" s="0"/>
-      <c r="XT3" s="0"/>
-      <c r="XU3" s="0"/>
-      <c r="XV3" s="0"/>
-      <c r="XW3" s="0"/>
-      <c r="XX3" s="0"/>
-      <c r="XY3" s="0"/>
-      <c r="XZ3" s="0"/>
-      <c r="YA3" s="0"/>
-      <c r="YB3" s="0"/>
-      <c r="YC3" s="0"/>
-      <c r="YD3" s="0"/>
-      <c r="YE3" s="0"/>
-      <c r="YF3" s="0"/>
-      <c r="YG3" s="0"/>
-      <c r="YH3" s="0"/>
-      <c r="YI3" s="0"/>
-      <c r="YJ3" s="0"/>
-      <c r="YK3" s="0"/>
-      <c r="YL3" s="0"/>
-      <c r="YM3" s="0"/>
-      <c r="YN3" s="0"/>
-      <c r="YO3" s="0"/>
-      <c r="YP3" s="0"/>
-      <c r="YQ3" s="0"/>
-      <c r="YR3" s="0"/>
-      <c r="YS3" s="0"/>
-      <c r="YT3" s="0"/>
-      <c r="YU3" s="0"/>
-      <c r="YV3" s="0"/>
-      <c r="YW3" s="0"/>
-      <c r="YX3" s="0"/>
-      <c r="YY3" s="0"/>
-      <c r="YZ3" s="0"/>
-      <c r="ZA3" s="0"/>
-      <c r="ZB3" s="0"/>
-      <c r="ZC3" s="0"/>
-      <c r="ZD3" s="0"/>
-      <c r="ZE3" s="0"/>
-      <c r="ZF3" s="0"/>
-      <c r="ZG3" s="0"/>
-      <c r="ZH3" s="0"/>
-      <c r="ZI3" s="0"/>
-      <c r="ZJ3" s="0"/>
-      <c r="ZK3" s="0"/>
-      <c r="ZL3" s="0"/>
-      <c r="ZM3" s="0"/>
-      <c r="ZN3" s="0"/>
-      <c r="ZO3" s="0"/>
-      <c r="ZP3" s="0"/>
-      <c r="ZQ3" s="0"/>
-      <c r="ZR3" s="0"/>
-      <c r="ZS3" s="0"/>
-      <c r="ZT3" s="0"/>
-      <c r="ZU3" s="0"/>
-      <c r="ZV3" s="0"/>
-      <c r="ZW3" s="0"/>
-      <c r="ZX3" s="0"/>
-      <c r="ZY3" s="0"/>
-      <c r="ZZ3" s="0"/>
-      <c r="AAA3" s="0"/>
-      <c r="AAB3" s="0"/>
-      <c r="AAC3" s="0"/>
-      <c r="AAD3" s="0"/>
-      <c r="AAE3" s="0"/>
-      <c r="AAF3" s="0"/>
-      <c r="AAG3" s="0"/>
-      <c r="AAH3" s="0"/>
-      <c r="AAI3" s="0"/>
-      <c r="AAJ3" s="0"/>
-      <c r="AAK3" s="0"/>
-      <c r="AAL3" s="0"/>
-      <c r="AAM3" s="0"/>
-      <c r="AAN3" s="0"/>
-      <c r="AAO3" s="0"/>
-      <c r="AAP3" s="0"/>
-      <c r="AAQ3" s="0"/>
-      <c r="AAR3" s="0"/>
-      <c r="AAS3" s="0"/>
-      <c r="AAT3" s="0"/>
-      <c r="AAU3" s="0"/>
-      <c r="AAV3" s="0"/>
-      <c r="AAW3" s="0"/>
-      <c r="AAX3" s="0"/>
-      <c r="AAY3" s="0"/>
-      <c r="AAZ3" s="0"/>
-      <c r="ABA3" s="0"/>
-      <c r="ABB3" s="0"/>
-      <c r="ABC3" s="0"/>
-      <c r="ABD3" s="0"/>
-      <c r="ABE3" s="0"/>
-      <c r="ABF3" s="0"/>
-      <c r="ABG3" s="0"/>
-      <c r="ABH3" s="0"/>
-      <c r="ABI3" s="0"/>
-      <c r="ABJ3" s="0"/>
-      <c r="ABK3" s="0"/>
-      <c r="ABL3" s="0"/>
-      <c r="ABM3" s="0"/>
-      <c r="ABN3" s="0"/>
-      <c r="ABO3" s="0"/>
-      <c r="ABP3" s="0"/>
-      <c r="ABQ3" s="0"/>
-      <c r="ABR3" s="0"/>
-      <c r="ABS3" s="0"/>
-      <c r="ABT3" s="0"/>
-      <c r="ABU3" s="0"/>
-      <c r="ABV3" s="0"/>
-      <c r="ABW3" s="0"/>
-      <c r="ABX3" s="0"/>
-      <c r="ABY3" s="0"/>
-      <c r="ABZ3" s="0"/>
-      <c r="ACA3" s="0"/>
-      <c r="ACB3" s="0"/>
-      <c r="ACC3" s="0"/>
-      <c r="ACD3" s="0"/>
-      <c r="ACE3" s="0"/>
-      <c r="ACF3" s="0"/>
-      <c r="ACG3" s="0"/>
-      <c r="ACH3" s="0"/>
-      <c r="ACI3" s="0"/>
-      <c r="ACJ3" s="0"/>
-      <c r="ACK3" s="0"/>
-      <c r="ACL3" s="0"/>
-      <c r="ACM3" s="0"/>
-      <c r="ACN3" s="0"/>
-      <c r="ACO3" s="0"/>
-      <c r="ACP3" s="0"/>
-      <c r="ACQ3" s="0"/>
-      <c r="ACR3" s="0"/>
-      <c r="ACS3" s="0"/>
-      <c r="ACT3" s="0"/>
-      <c r="ACU3" s="0"/>
-      <c r="ACV3" s="0"/>
-      <c r="ACW3" s="0"/>
-      <c r="ACX3" s="0"/>
-      <c r="ACY3" s="0"/>
-      <c r="ACZ3" s="0"/>
-      <c r="ADA3" s="0"/>
-      <c r="ADB3" s="0"/>
-      <c r="ADC3" s="0"/>
-      <c r="ADD3" s="0"/>
-      <c r="ADE3" s="0"/>
-      <c r="ADF3" s="0"/>
-      <c r="ADG3" s="0"/>
-      <c r="ADH3" s="0"/>
-      <c r="ADI3" s="0"/>
-      <c r="ADJ3" s="0"/>
-      <c r="ADK3" s="0"/>
-      <c r="ADL3" s="0"/>
-      <c r="ADM3" s="0"/>
-      <c r="ADN3" s="0"/>
-      <c r="ADO3" s="0"/>
-      <c r="ADP3" s="0"/>
-      <c r="ADQ3" s="0"/>
-      <c r="ADR3" s="0"/>
-      <c r="ADS3" s="0"/>
-      <c r="ADT3" s="0"/>
-      <c r="ADU3" s="0"/>
-      <c r="ADV3" s="0"/>
-      <c r="ADW3" s="0"/>
-      <c r="ADX3" s="0"/>
-      <c r="ADY3" s="0"/>
-      <c r="ADZ3" s="0"/>
-      <c r="AEA3" s="0"/>
-      <c r="AEB3" s="0"/>
-      <c r="AEC3" s="0"/>
-      <c r="AED3" s="0"/>
-      <c r="AEE3" s="0"/>
-      <c r="AEF3" s="0"/>
-      <c r="AEG3" s="0"/>
-      <c r="AEH3" s="0"/>
-      <c r="AEI3" s="0"/>
-      <c r="AEJ3" s="0"/>
-      <c r="AEK3" s="0"/>
-      <c r="AEL3" s="0"/>
-      <c r="AEM3" s="0"/>
-      <c r="AEN3" s="0"/>
-      <c r="AEO3" s="0"/>
-      <c r="AEP3" s="0"/>
-      <c r="AEQ3" s="0"/>
-      <c r="AER3" s="0"/>
-      <c r="AES3" s="0"/>
-      <c r="AET3" s="0"/>
-      <c r="AEU3" s="0"/>
-      <c r="AEV3" s="0"/>
-      <c r="AEW3" s="0"/>
-      <c r="AEX3" s="0"/>
-      <c r="AEY3" s="0"/>
-      <c r="AEZ3" s="0"/>
-      <c r="AFA3" s="0"/>
-      <c r="AFB3" s="0"/>
-      <c r="AFC3" s="0"/>
-      <c r="AFD3" s="0"/>
-      <c r="AFE3" s="0"/>
-      <c r="AFF3" s="0"/>
-      <c r="AFG3" s="0"/>
-      <c r="AFH3" s="0"/>
-      <c r="AFI3" s="0"/>
-      <c r="AFJ3" s="0"/>
-      <c r="AFK3" s="0"/>
-      <c r="AFL3" s="0"/>
-      <c r="AFM3" s="0"/>
-      <c r="AFN3" s="0"/>
-      <c r="AFO3" s="0"/>
-      <c r="AFP3" s="0"/>
-      <c r="AFQ3" s="0"/>
-      <c r="AFR3" s="0"/>
-      <c r="AFS3" s="0"/>
-      <c r="AFT3" s="0"/>
-      <c r="AFU3" s="0"/>
-      <c r="AFV3" s="0"/>
-      <c r="AFW3" s="0"/>
-      <c r="AFX3" s="0"/>
-      <c r="AFY3" s="0"/>
-      <c r="AFZ3" s="0"/>
-      <c r="AGA3" s="0"/>
-      <c r="AGB3" s="0"/>
-      <c r="AGC3" s="0"/>
-      <c r="AGD3" s="0"/>
-      <c r="AGE3" s="0"/>
-      <c r="AGF3" s="0"/>
-      <c r="AGG3" s="0"/>
-      <c r="AGH3" s="0"/>
-      <c r="AGI3" s="0"/>
-      <c r="AGJ3" s="0"/>
-      <c r="AGK3" s="0"/>
-      <c r="AGL3" s="0"/>
-      <c r="AGM3" s="0"/>
-      <c r="AGN3" s="0"/>
-      <c r="AGO3" s="0"/>
-      <c r="AGP3" s="0"/>
-      <c r="AGQ3" s="0"/>
-      <c r="AGR3" s="0"/>
-      <c r="AGS3" s="0"/>
-      <c r="AGT3" s="0"/>
-      <c r="AGU3" s="0"/>
-      <c r="AGV3" s="0"/>
-      <c r="AGW3" s="0"/>
-      <c r="AGX3" s="0"/>
-      <c r="AGY3" s="0"/>
-      <c r="AGZ3" s="0"/>
-      <c r="AHA3" s="0"/>
-      <c r="AHB3" s="0"/>
-      <c r="AHC3" s="0"/>
-      <c r="AHD3" s="0"/>
-      <c r="AHE3" s="0"/>
-      <c r="AHF3" s="0"/>
-      <c r="AHG3" s="0"/>
-      <c r="AHH3" s="0"/>
-      <c r="AHI3" s="0"/>
-      <c r="AHJ3" s="0"/>
-      <c r="AHK3" s="0"/>
-      <c r="AHL3" s="0"/>
-      <c r="AHM3" s="0"/>
-      <c r="AHN3" s="0"/>
-      <c r="AHO3" s="0"/>
-      <c r="AHP3" s="0"/>
-      <c r="AHQ3" s="0"/>
-      <c r="AHR3" s="0"/>
-      <c r="AHS3" s="0"/>
-      <c r="AHT3" s="0"/>
-      <c r="AHU3" s="0"/>
-      <c r="AHV3" s="0"/>
-      <c r="AHW3" s="0"/>
-      <c r="AHX3" s="0"/>
-      <c r="AHY3" s="0"/>
-      <c r="AHZ3" s="0"/>
-      <c r="AIA3" s="0"/>
-      <c r="AIB3" s="0"/>
-      <c r="AIC3" s="0"/>
-      <c r="AID3" s="0"/>
-      <c r="AIE3" s="0"/>
-      <c r="AIF3" s="0"/>
-      <c r="AIG3" s="0"/>
-      <c r="AIH3" s="0"/>
-      <c r="AII3" s="0"/>
-      <c r="AIJ3" s="0"/>
-      <c r="AIK3" s="0"/>
-      <c r="AIL3" s="0"/>
-      <c r="AIM3" s="0"/>
-      <c r="AIN3" s="0"/>
-      <c r="AIO3" s="0"/>
-      <c r="AIP3" s="0"/>
-      <c r="AIQ3" s="0"/>
-      <c r="AIR3" s="0"/>
-      <c r="AIS3" s="0"/>
-      <c r="AIT3" s="0"/>
-      <c r="AIU3" s="0"/>
-      <c r="AIV3" s="0"/>
-      <c r="AIW3" s="0"/>
-      <c r="AIX3" s="0"/>
-      <c r="AIY3" s="0"/>
-      <c r="AIZ3" s="0"/>
-      <c r="AJA3" s="0"/>
-      <c r="AJB3" s="0"/>
-      <c r="AJC3" s="0"/>
-      <c r="AJD3" s="0"/>
-      <c r="AJE3" s="0"/>
-      <c r="AJF3" s="0"/>
-      <c r="AJG3" s="0"/>
-      <c r="AJH3" s="0"/>
-      <c r="AJI3" s="0"/>
-      <c r="AJJ3" s="0"/>
-      <c r="AJK3" s="0"/>
-      <c r="AJL3" s="0"/>
-      <c r="AJM3" s="0"/>
-      <c r="AJN3" s="0"/>
-      <c r="AJO3" s="0"/>
-      <c r="AJP3" s="0"/>
-      <c r="AJQ3" s="0"/>
-      <c r="AJR3" s="0"/>
-      <c r="AJS3" s="0"/>
-      <c r="AJT3" s="0"/>
-      <c r="AJU3" s="0"/>
-      <c r="AJV3" s="0"/>
-      <c r="AJW3" s="0"/>
-      <c r="AJX3" s="0"/>
-      <c r="AJY3" s="0"/>
-      <c r="AJZ3" s="0"/>
-      <c r="AKA3" s="0"/>
-      <c r="AKB3" s="0"/>
-      <c r="AKC3" s="0"/>
-      <c r="AKD3" s="0"/>
-      <c r="AKE3" s="0"/>
-      <c r="AKF3" s="0"/>
-      <c r="AKG3" s="0"/>
-      <c r="AKH3" s="0"/>
-      <c r="AKI3" s="0"/>
-      <c r="AKJ3" s="0"/>
-      <c r="AKK3" s="0"/>
-      <c r="AKL3" s="0"/>
-      <c r="AKM3" s="0"/>
-      <c r="AKN3" s="0"/>
-      <c r="AKO3" s="0"/>
-      <c r="AKP3" s="0"/>
-      <c r="AKQ3" s="0"/>
-      <c r="AKR3" s="0"/>
-      <c r="AKS3" s="0"/>
-      <c r="AKT3" s="0"/>
-      <c r="AKU3" s="0"/>
-      <c r="AKV3" s="0"/>
-      <c r="AKW3" s="0"/>
-      <c r="AKX3" s="0"/>
-      <c r="AKY3" s="0"/>
-      <c r="AKZ3" s="0"/>
-      <c r="ALA3" s="0"/>
-      <c r="ALB3" s="0"/>
-      <c r="ALC3" s="0"/>
-      <c r="ALD3" s="0"/>
-      <c r="ALE3" s="0"/>
-      <c r="ALF3" s="0"/>
-      <c r="ALG3" s="0"/>
-      <c r="ALH3" s="0"/>
-      <c r="ALI3" s="0"/>
-      <c r="ALJ3" s="0"/>
-      <c r="ALK3" s="0"/>
-      <c r="ALL3" s="0"/>
-      <c r="ALM3" s="0"/>
-      <c r="ALN3" s="0"/>
-      <c r="ALO3" s="0"/>
-      <c r="ALP3" s="0"/>
-      <c r="ALQ3" s="0"/>
-      <c r="ALR3" s="0"/>
-      <c r="ALS3" s="0"/>
-      <c r="ALT3" s="0"/>
-      <c r="ALU3" s="0"/>
-      <c r="ALV3" s="0"/>
-      <c r="ALW3" s="0"/>
-      <c r="ALX3" s="0"/>
-      <c r="ALY3" s="0"/>
-      <c r="ALZ3" s="0"/>
-      <c r="AMA3" s="0"/>
-      <c r="AMB3" s="0"/>
-      <c r="AMC3" s="0"/>
-      <c r="AMD3" s="0"/>
-      <c r="AME3" s="0"/>
-      <c r="AMF3" s="0"/>
-      <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
+      <c r="B3" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="51" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8745,99 +7779,99 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="54" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="54" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="54" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="54" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="52" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="52" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="55"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="62" t="s">
+      <c r="B2" s="58" t="s">
         <v>28</v>
       </c>
+      <c r="C2" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>31</v>
+      </c>
       <c r="F2" s="31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="67" t="n">
+      <c r="B3" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="67" t="n">
+      <c r="G3" s="64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="67" t="n">
+      <c r="A4" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="67" t="n">
+      <c r="G4" s="64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8864,19 +7898,19 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="31.8947368421053"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="19" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="19" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="19" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="19" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="1023" min="9" style="19" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -8888,143 +7922,143 @@
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="69"/>
+      <c r="G1" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="71" t="n">
+      <c r="A3" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="68" t="n">
         <v>4891609702053</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="71" t="n">
+      <c r="D3" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="71" t="n">
+      <c r="G3" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="71" t="n">
+      <c r="H3" s="68" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="71" t="n">
+      <c r="A4" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="68" t="n">
         <v>4891612591514</v>
       </c>
-      <c r="D4" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="71" t="n">
+      <c r="D4" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="71" t="n">
+      <c r="G4" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="71" t="n">
+      <c r="H4" s="68" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="71" t="n">
+      <c r="A5" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="68" t="n">
         <v>4891609810000</v>
       </c>
-      <c r="D5" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="71" t="n">
+      <c r="D5" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="71" t="n">
+      <c r="G5" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="71" t="n">
+      <c r="H5" s="68" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="71" t="n">
+      <c r="A6" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="68" t="n">
         <v>4891609040032</v>
       </c>
-      <c r="D6" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="71" t="n">
+      <c r="D6" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="71" t="n">
+      <c r="G6" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="71" t="n">
+      <c r="H6" s="68" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:G2"/>
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
   </mergeCells>

--- a/Projects/SANOFIHK/Data/Template.xlsx
+++ b/Projects/SANOFIHK/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of Products in MSL</t>
+          <t xml:space="preserve">Name of Products in MSL</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">EAN of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -68,7 +68,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">Brand of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -82,7 +82,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Category of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">Category of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -96,7 +96,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -107,17 +107,17 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -131,7 +131,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Indicate 1 for MSL / indicate 0 if not in MSL
+          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
 </t>
         </r>
       </text>
@@ -156,7 +156,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand and Category required for shelf location KPI</t>
+          <t xml:space="preserve">Brand and Category required for shelf location KPI</t>
         </r>
       </text>
     </comment>
@@ -170,7 +170,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand and Category required for shelf location KPI</t>
+          <t xml:space="preserve">Brand and Category required for shelf location KPI</t>
         </r>
       </text>
     </comment>
@@ -184,7 +184,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -195,17 +195,17 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -219,7 +219,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Indicate 1 for MSL / indicate 0 if not in MSL
+          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
 </t>
         </r>
       </text>
@@ -245,7 +245,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>To be </t>
+          <t xml:space="preserve">To be </t>
         </r>
         <r>
           <rPr>
@@ -255,17 +255,17 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>identical</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> to SKUs Brand in Trax DB</t>
+          <t xml:space="preserve">identical</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> to SKUs Brand in Trax DB</t>
         </r>
       </text>
     </comment>
@@ -280,7 +280,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>To be </t>
+          <t xml:space="preserve">To be </t>
         </r>
         <r>
           <rPr>
@@ -290,17 +290,17 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>identical</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> to SKUs Category in Trax DB</t>
+          <t xml:space="preserve">identical</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> to SKUs Category in Trax DB</t>
         </r>
       </text>
     </comment>
@@ -314,7 +314,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>For multi SKU/brand/category in a single blocked together rule, please use a "," comma to seperate them</t>
+          <t xml:space="preserve">For multi SKU/brand/category in a single blocked together rule, please use a "," comma to seperate them</t>
         </r>
       </text>
     </comment>
@@ -328,7 +328,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -339,17 +339,17 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -363,7 +363,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Indicate 1 for segment that KPI will be applied / indicare 0 for non selected segment</t>
+          <t xml:space="preserve">Indicate 1 for segment that KPI will be applied / indicare 0 for non selected segment</t>
         </r>
       </text>
     </comment>
@@ -387,7 +387,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of POSM</t>
+          <t xml:space="preserve">Name of POSM</t>
         </r>
       </text>
     </comment>
@@ -401,7 +401,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of Required POSM in accordance with POSM template</t>
+          <t xml:space="preserve">EAN of Required POSM in accordance with POSM template</t>
         </r>
       </text>
     </comment>
@@ -415,7 +415,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Pavel Chernykh:
+          <t xml:space="preserve">Pavel Chernykh:
 </t>
         </r>
         <r>
@@ -426,7 +426,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand of Required POSM in accordance with POSM template</t>
+          <t xml:space="preserve">Brand of Required POSM in accordance with POSM template</t>
         </r>
       </text>
     </comment>
@@ -440,7 +440,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Pavel Chernykh:
+          <t xml:space="preserve">Pavel Chernykh:
 </t>
         </r>
         <r>
@@ -451,7 +451,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Category of Required POSM in accordance with POSM template</t>
+          <t xml:space="preserve">Category of Required POSM in accordance with POSM template</t>
         </r>
       </text>
     </comment>
@@ -465,7 +465,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -476,17 +476,17 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -500,7 +500,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Minimum number of facings for each POSM per Segement (Indicate 0 if not checked)</t>
+          <t xml:space="preserve">Minimum number of facings for each POSM per Segement (Indicate 0 if not checked)</t>
         </r>
       </text>
     </comment>
@@ -524,7 +524,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of Products in Min facings</t>
+          <t xml:space="preserve">Name of Products in Min facings</t>
         </r>
       </text>
     </comment>
@@ -538,7 +538,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">EAN of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -552,7 +552,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">Brand of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -566,7 +566,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Category of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">Category of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -580,7 +580,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -591,17 +591,17 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -615,7 +615,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Minimum number of facings for each SKU per Segment (Indicate 0 if not in Min facings)</t>
+          <t xml:space="preserve">Minimum number of facings for each SKU per Segment (Indicate 0 if not in Min facings)</t>
         </r>
       </text>
     </comment>
@@ -624,165 +624,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="53">
-  <si>
-    <t>KPI Name</t>
-  </si>
-  <si>
-    <t>KPI Group</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>Tested Group</t>
-  </si>
-  <si>
-    <t>Template Group</t>
-  </si>
-  <si>
-    <t>Sheet</t>
-  </si>
-  <si>
-    <t>SCORE</t>
-  </si>
-  <si>
-    <t>POSM Availability Primary</t>
-  </si>
-  <si>
-    <t>Primary Shelf</t>
-  </si>
-  <si>
-    <t>Product Availability Per SKU</t>
-  </si>
-  <si>
-    <t>Primary&amp;Secondary_POSM</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>Product Minimum Facings Primary</t>
-  </si>
-  <si>
-    <t>Primary&amp;Secondary_Facings</t>
-  </si>
-  <si>
-    <t>Blocked Together</t>
-  </si>
-  <si>
-    <t>Blocked Together Per Brand</t>
-  </si>
-  <si>
-    <t>Primary_Brand_Blocking</t>
-  </si>
-  <si>
-    <t>Shelf Location Compliance</t>
-  </si>
-  <si>
-    <t>Shelf Level Per Brand</t>
-  </si>
-  <si>
-    <t>Primary Shelf_Location</t>
-  </si>
-  <si>
-    <t>POSM Availability Secondary</t>
-  </si>
-  <si>
-    <t>Secondary Shelf</t>
-  </si>
-  <si>
-    <t>Product Minimum Facings Secondary</t>
-  </si>
-  <si>
-    <t>MSL Compliance</t>
-  </si>
-  <si>
-    <t>MSL</t>
-  </si>
-  <si>
-    <t>Perfect Store</t>
-  </si>
-  <si>
-    <t>Primary Shelf Compliance</t>
-  </si>
-  <si>
-    <t>Secondary Shelf Compliance</t>
-  </si>
-  <si>
-    <t>Perfect Store Compliance</t>
-  </si>
-  <si>
-    <t>Sum of KPIs in Group</t>
-  </si>
-  <si>
-    <t>Store Type</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Product EAN Code</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>GBD -HK GT RX </t>
-  </si>
-  <si>
-    <t>GBD -HK GT Medicine</t>
-  </si>
-  <si>
-    <t>ESSENTIALE 60 Capsules</t>
-  </si>
-  <si>
-    <t>Essentiale</t>
-  </si>
-  <si>
-    <t>Digestive</t>
-  </si>
-  <si>
-    <t>DULCOLAX 30 Tablets</t>
-  </si>
-  <si>
-    <t>Dulcolax</t>
-  </si>
-  <si>
-    <t>DULCOLAX 100 Tablet</t>
-  </si>
-  <si>
-    <t>LACTACYD EP</t>
-  </si>
-  <si>
-    <t>Lactacyd</t>
-  </si>
-  <si>
-    <t>Feminine Care</t>
-  </si>
-  <si>
-    <t>LACTACYD FRESH</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Display Rack_Essentiale_Dulcolax</t>
-  </si>
-  <si>
-    <t>POSM_001</t>
-  </si>
-  <si>
-    <t>Essentiale &amp; Dulcolax</t>
-  </si>
-  <si>
-    <t>Lactacyd shelf strip</t>
-  </si>
-  <si>
-    <t>POSM_002</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="53">
+  <si>
+    <t xml:space="preserve">KPI Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Availability Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Availability Per SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary&amp;Secondary_POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Minimum Facings Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary&amp;Secondary_Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together Per Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary_Brand_Blocking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Location Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Level Per Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf_Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Availability Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Minimum Facings Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Store Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of KPIs in Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product EAN Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD -HK GT RX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD -HK GT Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESSENTIALE 60 Capsules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essentiale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digestive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULCOLAX 30 Tablets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcolax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULCOLAX 100 Tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTACYD EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactacyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feminine Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTACYD FRESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Rack_Essentiale_Dulcolax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essentiale &amp; Dulcolax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactacyd shelf strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_002</t>
   </si>
 </sst>
 </file>
@@ -790,7 +790,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0;[RED]0"/>
@@ -877,14 +877,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -915,6 +907,14 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -997,14 +997,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1067,7 +1067,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1176,27 +1176,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1204,15 +1196,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1228,46 +1220,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1284,43 +1236,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1408,19 +1364,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1684,12 +1640,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
@@ -1980,20 +1936,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="27" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="27" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="28" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+    <row r="1" s="28" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2021,136 +1977,136 @@
       <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2172,29 +2128,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="37" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="37" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="38" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="35" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="36" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2222,107 +2178,6 @@
       <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2352,13 +2207,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="50" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="50" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2368,113 +2223,113 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="51"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="40" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="41" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="55" t="n">
+      <c r="F3" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="55" t="n">
+      <c r="G3" s="43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="55" t="n">
+      <c r="F4" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="55" t="n">
+      <c r="G4" s="43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2504,190 +2359,190 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1023" min="8" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="40" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="41" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="45" t="n">
+      <c r="C3" s="48" t="n">
         <v>4891609702053</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="61" t="n">
+      <c r="F3" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="61" t="n">
+      <c r="G3" s="50" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="45" t="n">
+      <c r="C4" s="48" t="n">
         <v>4891612591514</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="61" t="n">
+      <c r="F4" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="61" t="n">
+      <c r="G4" s="50" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="61" t="n">
+      <c r="F5" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="61" t="n">
+      <c r="G5" s="50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="C6" s="53"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+      <c r="C7" s="53"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
+      <c r="C8" s="53"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+      <c r="C10" s="53"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
+      <c r="C11" s="53"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
+      <c r="C12" s="53"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
+      <c r="C13" s="53"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
+      <c r="C14" s="53"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Projects/SANOFIHK/Data/Template.xlsx
+++ b/Projects/SANOFIHK/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="76">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -737,6 +737,18 @@
     <t xml:space="preserve">GBD -HK GT Medicine</t>
   </si>
   <si>
+    <t xml:space="preserve">GBD -HK GT TRAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD -HK GT Store A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD -HK GT Store B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD -Macau GT TRAX</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESSENTIALE 60 Capsules</t>
   </si>
   <si>
@@ -764,37 +776,93 @@
     <t xml:space="preserve">Feminine Care</t>
   </si>
   <si>
-    <t xml:space="preserve">LACTACYD FRESH</t>
+    <t xml:space="preserve">Surulac 40 Tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4891609560080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surulac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTACYD ADC 250ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8934638030028 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactacyd ADF 250ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4891609992300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobliity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7891058003968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrition</t>
   </si>
   <si>
     <t xml:space="preserve">SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">Display Rack_Essentiale_Dulcolax</t>
+    <t xml:space="preserve">Display Rack_Essentiale</t>
   </si>
   <si>
     <t xml:space="preserve">POSM_001</t>
   </si>
   <si>
-    <t xml:space="preserve">Essentiale &amp; Dulcolax</t>
+    <t xml:space="preserve">Display Rack_Surulac &amp; Dulcolax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surulac &amp; Dulcolax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Box_Mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobility</t>
   </si>
   <si>
     <t xml:space="preserve">Lactacyd shelf strip</t>
   </si>
   <si>
-    <t xml:space="preserve">POSM_002</t>
+    <t xml:space="preserve">POSM_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULCOLAX 100 Tablets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULCOLAX 30 Tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surulac 40 Tablets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTACYD EP 250ml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0;[RED]0"/>
-    <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -820,18 +888,18 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -940,7 +1008,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -962,7 +1030,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
     <fill>
@@ -986,13 +1054,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFF8CBAD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFA9D18E"/>
       </patternFill>
     </fill>
     <fill>
@@ -1005,6 +1073,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FFC5E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -1038,7 +1124,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1062,21 +1148,29 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1128,7 +1222,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1136,11 +1230,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1156,42 +1254,34 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="6" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1216,7 +1306,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1228,19 +1318,55 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1256,43 +1382,41 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="20" fillId="14" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="14" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="14" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Explanatory Text 2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="22" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1332,10 +1456,10 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FFFFE699"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FFFFCCFF"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1364,19 +1488,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1632,20 +1756,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
@@ -1661,7 +1785,7 @@
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="58.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1683,231 +1807,316 @@
       <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="H2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="21" t="n">
+      <c r="B3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="22" t="n">
         <v>4891609702053</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="D3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="21" t="n">
+      <c r="B4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="22" t="n">
         <v>4891612591514</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="D4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="21" t="n">
+      <c r="B5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="22" t="n">
         <v>4891612591521</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="D5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="22" t="n">
+        <v>4891609810000</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="21" t="n">
-        <v>4891609810000</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="F7" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="21" t="n">
-        <v>4891609040032</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="B8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="B9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
-      <c r="B15" s="26"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
-      <c r="B18" s="22"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
+      <c r="B10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
@@ -1930,26 +2139,26 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+    <row r="1" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -1966,7 +2175,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>32</v>
@@ -1977,136 +2186,136 @@
       <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2130,27 +2339,27 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="35" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="36" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="35" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2199,21 +2408,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="1:11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2223,113 +2432,250 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="39"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
+      <c r="H2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="E6" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
+      <c r="F6" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="B7" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2351,198 +2697,355 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:AMI10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1023" min="8" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40" t="s">
+    <row r="2" customFormat="false" ht="58.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
+      <c r="H2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="48" t="n">
+      <c r="B3" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="55" t="n">
         <v>4891609702053</v>
       </c>
-      <c r="D3" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="50" t="n">
+      <c r="D3" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="50" t="n">
+      <c r="I3" s="56" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="s">
+      <c r="J3" s="56" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="48" t="n">
+      <c r="B4" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="55" t="n">
         <v>4891612591514</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="50" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
+      <c r="D4" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="55" t="n">
+        <v>4891612591514</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMI5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="55" t="n">
+        <v>4891612591514</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMI6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMI7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="E8" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="F8" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMI8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMI9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMI10" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Projects/SANOFIHK/Data/Template.xlsx
+++ b/Projects/SANOFIHK/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of Products in MSL</t>
+          <t xml:space="preserve">Name of Products in MSL</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">EAN of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -68,7 +68,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">Brand of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -82,7 +82,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Category of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">Category of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -96,7 +96,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
         </r>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -131,7 +131,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Indicate 1 for MSL / indicate 0 if not in MSL
+          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
 </t>
         </r>
       </text>
@@ -156,7 +156,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand and Category required for shelf location KPI</t>
+          <t xml:space="preserve">Brand and Category required for shelf location KPI</t>
         </r>
       </text>
     </comment>
@@ -170,7 +170,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand and Category required for shelf location KPI</t>
+          <t xml:space="preserve">Brand and Category required for shelf location KPI</t>
         </r>
       </text>
     </comment>
@@ -184,7 +184,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -195,7 +195,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
         </r>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -219,7 +219,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Indicate 1 for MSL / indicate 0 if not in MSL
+          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
 </t>
         </r>
       </text>
@@ -245,7 +245,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>To be </t>
+          <t xml:space="preserve">To be </t>
         </r>
         <r>
           <rPr>
@@ -255,7 +255,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>identical</t>
+          <t xml:space="preserve">identical</t>
         </r>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> to SKUs Brand in Trax DB</t>
+          <t xml:space="preserve"> to SKUs Brand in Trax DB</t>
         </r>
       </text>
     </comment>
@@ -280,7 +280,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>To be </t>
+          <t xml:space="preserve">To be </t>
         </r>
         <r>
           <rPr>
@@ -290,7 +290,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>identical</t>
+          <t xml:space="preserve">identical</t>
         </r>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> to SKUs Category in Trax DB</t>
+          <t xml:space="preserve"> to SKUs Category in Trax DB</t>
         </r>
       </text>
     </comment>
@@ -314,7 +314,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>For multi SKU/brand/category in a single blocked together rule, please use a "," comma to seperate them</t>
+          <t xml:space="preserve">For multi SKU/brand/category in a single blocked together rule, please use a "," comma to seperate them</t>
         </r>
       </text>
     </comment>
@@ -328,7 +328,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
         </r>
         <r>
           <rPr>
@@ -349,7 +349,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -363,7 +363,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Indicate 1 for segment that KPI will be applied / indicare 0 for non selected segment</t>
+          <t xml:space="preserve">Indicate 1 for segment that KPI will be applied / indicare 0 for non selected segment</t>
         </r>
       </text>
     </comment>
@@ -387,7 +387,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of POSM</t>
+          <t xml:space="preserve">Name of POSM</t>
         </r>
       </text>
     </comment>
@@ -401,7 +401,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of Required POSM in accordance with POSM template</t>
+          <t xml:space="preserve">EAN of Required POSM in accordance with POSM template</t>
         </r>
       </text>
     </comment>
@@ -415,7 +415,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Pavel Chernykh:
+          <t xml:space="preserve">Pavel Chernykh:
 </t>
         </r>
         <r>
@@ -426,7 +426,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand of Required POSM in accordance with POSM template</t>
+          <t xml:space="preserve">Brand of Required POSM in accordance with POSM template</t>
         </r>
       </text>
     </comment>
@@ -440,7 +440,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Pavel Chernykh:
+          <t xml:space="preserve">Pavel Chernykh:
 </t>
         </r>
         <r>
@@ -451,7 +451,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Category of Required POSM in accordance with POSM template</t>
+          <t xml:space="preserve">Category of Required POSM in accordance with POSM template</t>
         </r>
       </text>
     </comment>
@@ -465,7 +465,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -476,7 +476,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
         </r>
         <r>
           <rPr>
@@ -486,7 +486,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -500,7 +500,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Minimum number of facings for each POSM per Segement (Indicate 0 if not checked)</t>
+          <t xml:space="preserve">Minimum number of facings for each POSM per Segement (Indicate 0 if not checked)</t>
         </r>
       </text>
     </comment>
@@ -524,7 +524,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of Products in Min facings</t>
+          <t xml:space="preserve">Name of Products in Min facings</t>
         </r>
       </text>
     </comment>
@@ -538,7 +538,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">EAN of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -552,7 +552,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">Brand of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -566,7 +566,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Category of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">Category of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -580,7 +580,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -591,7 +591,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
         </r>
         <r>
           <rPr>
@@ -601,7 +601,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -615,7 +615,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Minimum number of facings for each SKU per Segment (Indicate 0 if not in Min facings)</t>
+          <t xml:space="preserve">Minimum number of facings for each SKU per Segment (Indicate 0 if not in Min facings)</t>
         </r>
       </text>
     </comment>
@@ -624,177 +624,245 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="53">
-  <si>
-    <t>KPI Name</t>
-  </si>
-  <si>
-    <t>KPI Group</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>Tested Group</t>
-  </si>
-  <si>
-    <t>Template Group</t>
-  </si>
-  <si>
-    <t>Sheet</t>
-  </si>
-  <si>
-    <t>SCORE</t>
-  </si>
-  <si>
-    <t>POSM Availability Primary</t>
-  </si>
-  <si>
-    <t>Primary Shelf</t>
-  </si>
-  <si>
-    <t>Product Availability Per SKU</t>
-  </si>
-  <si>
-    <t>Primary&amp;Secondary_POSM</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>Product Minimum Facings Primary</t>
-  </si>
-  <si>
-    <t>Primary&amp;Secondary_Facings</t>
-  </si>
-  <si>
-    <t>Blocked Together</t>
-  </si>
-  <si>
-    <t>Blocked Together Per Brand</t>
-  </si>
-  <si>
-    <t>Primary_Brand_Blocking</t>
-  </si>
-  <si>
-    <t>Shelf Location Compliance</t>
-  </si>
-  <si>
-    <t>Shelf Level Per Brand</t>
-  </si>
-  <si>
-    <t>Primary Shelf_Location</t>
-  </si>
-  <si>
-    <t>POSM Availability Secondary</t>
-  </si>
-  <si>
-    <t>Secondary Shelf</t>
-  </si>
-  <si>
-    <t>Product Minimum Facings Secondary</t>
-  </si>
-  <si>
-    <t>MSL Compliance</t>
-  </si>
-  <si>
-    <t>MSL</t>
-  </si>
-  <si>
-    <t>Perfect Store</t>
-  </si>
-  <si>
-    <t>Primary Shelf Compliance</t>
-  </si>
-  <si>
-    <t>Secondary Shelf Compliance</t>
-  </si>
-  <si>
-    <t>Perfect Store Compliance</t>
-  </si>
-  <si>
-    <t>Sum of KPIs in Group</t>
-  </si>
-  <si>
-    <t>Store Type</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Product EAN Code</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>GBD -HK GT RX </t>
-  </si>
-  <si>
-    <t>GBD -HK GT Medicine</t>
-  </si>
-  <si>
-    <t>ESSENTIALE 60 Capsules</t>
-  </si>
-  <si>
-    <t>Essentiale</t>
-  </si>
-  <si>
-    <t>Digestive</t>
-  </si>
-  <si>
-    <t>DULCOLAX 30 Tablets</t>
-  </si>
-  <si>
-    <t>Dulcolax</t>
-  </si>
-  <si>
-    <t>DULCOLAX 100 Tablet</t>
-  </si>
-  <si>
-    <t>LACTACYD EP</t>
-  </si>
-  <si>
-    <t>Lactacyd</t>
-  </si>
-  <si>
-    <t>Feminine Care</t>
-  </si>
-  <si>
-    <t>LACTACYD FRESH</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Display Rack_Essentiale_Dulcolax</t>
-  </si>
-  <si>
-    <t>POSM_001</t>
-  </si>
-  <si>
-    <t>Essentiale &amp; Dulcolax</t>
-  </si>
-  <si>
-    <t>Lactacyd shelf strip</t>
-  </si>
-  <si>
-    <t>POSM_002</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="76">
+  <si>
+    <t xml:space="preserve">KPI Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Availability Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Availability Per SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary&amp;Secondary_POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Minimum Facings Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary&amp;Secondary_Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together Per Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary_Brand_Blocking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Location Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Level Per Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf_Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Availability Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Minimum Facings Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Store Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of KPIs in Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product EAN Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD -HK GT RX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD -HK GT Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD -HK GT TRAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD -HK GT Store A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD -HK GT Store B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD -Macau GT TRAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESSENTIALE 60 Capsules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essentiale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digestive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULCOLAX 30 Tablets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcolax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULCOLAX 100 Tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTACYD EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactacyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feminine Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surulac 40 Tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4891609560080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surulac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTACYD ADC 250ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8934638030028 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactacyd ADF 250ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4891609992300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobliity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7891058003968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Rack_Essentiale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Rack_Surulac &amp; Dulcolax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surulac &amp; Dulcolax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Box_Mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactacyd shelf strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULCOLAX 100 Tablets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULCOLAX 30 Tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surulac 40 Tablets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTACYD EP 250ml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0;[RED]0"/>
-    <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -820,18 +888,18 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -877,14 +945,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -920,6 +980,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -940,7 +1008,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -962,7 +1030,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
     <fill>
@@ -986,13 +1054,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFF8CBAD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFA9D18E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -1003,8 +1077,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FFC5E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -1038,7 +1124,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1062,21 +1148,29 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1128,7 +1222,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1136,11 +1230,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1156,63 +1254,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="6" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1224,47 +1306,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1276,67 +1318,105 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="14" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="14" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="14" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Explanatory Text 2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="22" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1376,10 +1456,10 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FFFFE699"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FFFFCCFF"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1408,19 +1488,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1676,20 +1756,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
@@ -1705,7 +1785,7 @@
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="58.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1727,231 +1807,316 @@
       <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="H2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="21" t="n">
+      <c r="B3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="22" t="n">
         <v>4891609702053</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="D3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="21" t="n">
+      <c r="B4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="22" t="n">
         <v>4891612591514</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="D4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="21" t="n">
+      <c r="B5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="22" t="n">
         <v>4891612591521</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="D5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="22" t="n">
+        <v>4891609810000</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="21" t="n">
-        <v>4891609810000</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="F7" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="21" t="n">
-        <v>4891609040032</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="B8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="B9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
-      <c r="B15" s="26"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
-      <c r="B18" s="22"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
+      <c r="B10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
@@ -1974,26 +2139,26 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="27" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="27" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="28" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+    <row r="1" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2010,7 +2175,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>32</v>
@@ -2021,136 +2186,136 @@
       <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2172,29 +2337,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="37" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="37" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="38" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="35" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2222,107 +2387,6 @@
       <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2344,21 +2408,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="1:11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="50" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="50" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2368,113 +2432,250 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="51"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="s">
+      <c r="H2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="E6" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="55" t="s">
+      <c r="F6" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="B7" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2496,198 +2697,355 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:AMI10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1023" min="8" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52" t="s">
+    <row r="2" customFormat="false" ht="58.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="s">
+      <c r="H2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="45" t="n">
+      <c r="B3" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="55" t="n">
         <v>4891609702053</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="61" t="n">
+      <c r="D3" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="61" t="n">
+      <c r="I3" s="56" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54" t="s">
+      <c r="J3" s="56" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="45" t="n">
+      <c r="B4" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="55" t="n">
         <v>4891612591514</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="61" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="61" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="54" t="s">
+      <c r="D4" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="55" t="n">
+        <v>4891612591514</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMI5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="55" t="n">
+        <v>4891612591514</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMI6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMI7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="E8" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="64"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="64"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
+      <c r="F8" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMI8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMI9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMI10" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Projects/SANOFIHK/Data/Template.xlsx
+++ b/Projects/SANOFIHK/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="76">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -864,7 +864,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0;[RED]0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -888,18 +888,18 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -960,13 +960,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1124,7 +1117,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1148,29 +1141,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1222,7 +1207,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1230,15 +1215,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1254,11 +1239,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="6" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1266,11 +1247,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1286,15 +1263,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1306,7 +1283,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1318,105 +1295,95 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="14" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="14" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="14" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Explanatory Text 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1494,13 +1461,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1758,18 +1725,18 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
@@ -1784,6 +1751,11 @@
         <v>30</v>
       </c>
       <c r="G1" s="16"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="58.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
@@ -1819,6 +1791,7 @@
       <c r="K2" s="19" t="s">
         <v>40</v>
       </c>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
@@ -1836,24 +1809,25 @@
       <c r="E3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="23" t="n">
-        <v>1</v>
-      </c>
+      <c r="F3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
@@ -1871,24 +1845,25 @@
       <c r="E4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23" t="n">
-        <v>1</v>
-      </c>
+      <c r="F4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
@@ -1906,24 +1881,25 @@
       <c r="E5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
@@ -1941,24 +1917,25 @@
       <c r="E6" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="23" t="n">
-        <v>1</v>
-      </c>
+      <c r="F6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
@@ -1976,22 +1953,22 @@
       <c r="E7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="23" t="n">
+      <c r="F7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="21" t="n">
         <v>1</v>
       </c>
       <c r="AMJ7" s="0"/>
@@ -2012,22 +1989,22 @@
       <c r="E8" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="23" t="n">
+      <c r="F8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21" t="n">
         <v>1</v>
       </c>
       <c r="AMJ8" s="0"/>
@@ -2048,22 +2025,22 @@
       <c r="E9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="23" t="n">
+      <c r="F9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21" t="n">
         <v>1</v>
       </c>
       <c r="AMJ9" s="0"/>
@@ -2084,22 +2061,22 @@
       <c r="E10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="23" t="n">
+      <c r="F10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AMJ10" s="0"/>
@@ -2137,34 +2114,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+    <row r="1" s="24" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="58.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2186,136 +2163,147 @@
       <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="26"/>
+      <c r="H2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2337,35 +2325,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="35" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="32" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="33" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="58.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2386,6 +2374,18 @@
       </c>
       <c r="G2" s="18" t="s">
         <v>36</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2410,19 +2410,19 @@
   </sheetPr>
   <dimension ref="1:11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2432,31 +2432,36 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="38"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="38" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="19" t="s">
@@ -2471,211 +2476,213 @@
       <c r="K2" s="19" t="s">
         <v>40</v>
       </c>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="46" t="n">
+      <c r="F3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="43" t="n">
         <v>1</v>
       </c>
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="43" t="n">
+      <c r="F4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="41" t="n">
         <v>0</v>
       </c>
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="47" t="n">
+      <c r="F5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="47" t="n">
+      <c r="I5" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="47" t="n">
+      <c r="J5" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="48" t="n">
+      <c r="K5" s="45" t="n">
         <v>0</v>
       </c>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="46" t="n">
-        <v>1</v>
-      </c>
+      <c r="F6" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="43" t="n">
+      <c r="F7" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="41" t="n">
         <v>1</v>
       </c>
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2699,53 +2706,58 @@
   </sheetPr>
   <dimension ref="A1:AMI10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1023" min="8" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="16"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="AMI1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="58.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="38" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="19" t="s">
@@ -2760,289 +2772,292 @@
       <c r="K2" s="19" t="s">
         <v>40</v>
       </c>
+      <c r="AMI2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="55" t="n">
+      <c r="C3" s="39" t="n">
         <v>4891609702053</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="56" t="n">
+      <c r="F3" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="I3" s="56" t="n">
+      <c r="I3" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="56" t="n">
+      <c r="J3" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="K3" s="56" t="n">
+      <c r="K3" s="52" t="n">
         <v>3</v>
       </c>
+      <c r="AMI3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="55" t="n">
+      <c r="C4" s="39" t="n">
         <v>4891612591514</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="56" t="n">
+      <c r="F4" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="52" t="n">
         <v>2</v>
       </c>
+      <c r="AMI4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="55" t="n">
+      <c r="C5" s="39" t="n">
         <v>4891612591514</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="56" t="n">
+      <c r="F5" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="56" t="n">
+      <c r="I5" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="56" t="n">
+      <c r="J5" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="56" t="n">
+      <c r="K5" s="52" t="n">
         <v>0</v>
       </c>
       <c r="AMI5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="55" t="n">
+      <c r="C6" s="39" t="n">
         <v>4891612591514</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="56" t="n">
+      <c r="F6" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="52" t="n">
         <v>2</v>
       </c>
       <c r="AMI6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="56" t="n">
+      <c r="F7" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="56" t="n">
+      <c r="I7" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="56" t="n">
+      <c r="J7" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="K7" s="56" t="n">
+      <c r="K7" s="52" t="n">
         <v>2</v>
       </c>
       <c r="AMI7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="56" t="n">
+      <c r="F8" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="56" t="n">
+      <c r="I8" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="56" t="n">
+      <c r="J8" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="52" t="n">
         <v>2</v>
       </c>
       <c r="AMI8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="56" t="n">
+      <c r="F9" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="56" t="n">
+      <c r="I9" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="56" t="n">
+      <c r="J9" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="52" t="n">
         <v>2</v>
       </c>
       <c r="AMI9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="56" t="n">
+      <c r="F10" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="56" t="n">
+      <c r="I10" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="56" t="n">
+      <c r="J10" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="52" t="n">
         <v>2</v>
       </c>
       <c r="AMI10" s="0"/>

--- a/Projects/SANOFIHK/Data/Template.xlsx
+++ b/Projects/SANOFIHK/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="75">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">Feminine Care</t>
   </si>
   <si>
-    <t xml:space="preserve">Surulac 40 Tablet</t>
+    <t xml:space="preserve">Surulac Constipation Medicine Constipation Medicine 40 Tablets</t>
   </si>
   <si>
     <t xml:space="preserve"> 4891609560080</t>
@@ -785,24 +785,24 @@
     <t xml:space="preserve">Surulac</t>
   </si>
   <si>
-    <t xml:space="preserve">LACTACYD ADC 250ml</t>
+    <t xml:space="preserve">Lactacyd All Day Care Daily Feminine Wash 250ml</t>
   </si>
   <si>
     <t xml:space="preserve"> 8934638030028 </t>
   </si>
   <si>
-    <t xml:space="preserve">Lactacyd ADF 250ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4891609992300</t>
+    <t xml:space="preserve">LACTACYD FDW FRESHNESS 250ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Box_Mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_003</t>
   </si>
   <si>
     <t xml:space="preserve">Mobliity</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7891058003968</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nutrition</t>
   </si>
   <si>
@@ -824,12 +824,6 @@
     <t xml:space="preserve">Surulac &amp; Dulcolax</t>
   </si>
   <si>
-    <t xml:space="preserve">Display Box_Mobility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSM_003</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mobility</t>
   </si>
   <si>
@@ -852,6 +846,9 @@
   </si>
   <si>
     <t xml:space="preserve">LACTACYD EP 250ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8938503445238</t>
   </si>
 </sst>
 </file>
@@ -864,7 +861,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0;[RED]0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -938,6 +935,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -1001,7 +1005,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1058,8 +1062,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -1070,20 +1074,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FFC5E0B4"/>
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCFF"/>
-        <bgColor rgb="FFDAE3F3"/>
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1117,7 +1127,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1141,12 +1151,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1207,7 +1221,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1215,11 +1229,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1239,15 +1253,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1263,15 +1285,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1283,7 +1305,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1295,95 +1317,116 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1448,6 +1491,1246 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2971440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8800560" cy="6349320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2971440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8800560" cy="6349320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2971440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8800560" cy="6349320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2971440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8800560" cy="6349320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2971440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8800560" cy="6349320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2971440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8800560" cy="6349320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1523520</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7714440" cy="6349320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1523520</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7714440" cy="6349320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1523520</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7714440" cy="6349320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1523520</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7714440" cy="6349320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1929960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7616160" cy="6351480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1929960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7616160" cy="6351480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1929960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7616160" cy="6351480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1929960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7616160" cy="6351480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1929960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7616160" cy="6351480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431280</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8022600" cy="6352560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431280</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8022600" cy="6352560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431280</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8022600" cy="6352560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431280</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8022600" cy="6352560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431280</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8022600" cy="6352560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431280</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8022600" cy="6352560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1041120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7851240" cy="6351480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1041120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7851240" cy="6351480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1041120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7851240" cy="6351480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1041120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7851240" cy="6351480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1041120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7851240" cy="6351480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1041120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7851240" cy="6351480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1456,22 +2739,22 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +2777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +2798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1536,7 +2819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1557,7 +2840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +2861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1599,7 +2882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1620,7 +2903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -1639,7 +2922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -1660,7 +2943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1675,7 +2958,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -1690,7 +2973,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
@@ -1723,22 +3006,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1755,9 +3038,9 @@
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="58.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1791,9 +3074,9 @@
       <c r="K2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
@@ -1827,9 +3110,9 @@
       <c r="K3" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
@@ -1863,7 +3146,7 @@
       <c r="K4" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ4" s="0"/>
+      <c r="L4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
@@ -1899,7 +3182,7 @@
       <c r="K5" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="AMJ5" s="0"/>
+      <c r="L5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
@@ -1935,13 +3218,13 @@
       <c r="K6" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -1971,13 +3254,13 @@
       <c r="K7" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -2007,7 +3290,7 @@
       <c r="K8" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ8" s="0"/>
+      <c r="L8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
@@ -2016,8 +3299,8 @@
       <c r="B9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>56</v>
+      <c r="C9" s="22" t="n">
+        <v>8938503445238</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>48</v>
@@ -2043,20 +3326,20 @@
       <c r="K9" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ9" s="0"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>59</v>
@@ -2079,21 +3362,227 @@
       <c r="K10" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId2" display="Surulac Constipation Medicine Constipation Medicine 40 Tablets"/>
+    <hyperlink ref="B8" r:id="rId3" display="Lactacyd All Day Care Daily Feminine Wash 250ml"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="26" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="27"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="27"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="27"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="27"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="27"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
@@ -2105,43 +3594,49 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="35" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="58.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +3647,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>32</v>
@@ -2175,135 +3670,6 @@
       <c r="K2" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2316,63 +3682,69 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="32" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="33" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="29.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="16" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="58.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="39" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="19" t="s">
@@ -2387,6 +3759,207 @@
       <c r="K2" s="19" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2399,303 +3972,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:11"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="44" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="44" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AMJ6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2704,30 +3982,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="14" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1022" min="8" style="14" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2736,28 +4014,27 @@
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
-      <c r="AMI1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="58.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="37" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="19" t="s">
@@ -2772,307 +4049,305 @@
       <c r="K2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AMI2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="39" t="n">
+      <c r="C3" s="55" t="n">
         <v>4891609702053</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="52" t="n">
+      <c r="F3" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="I3" s="52" t="n">
+      <c r="I3" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="52" t="n">
+      <c r="J3" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="K3" s="52" t="n">
+      <c r="K3" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="AMI3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="39" t="n">
+      <c r="C4" s="55" t="n">
         <v>4891612591514</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="52" t="n">
+      <c r="F4" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="AMI4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="55" t="n">
+        <v>4891612591514</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="55" t="n">
+        <v>4891612591514</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="39" t="n">
-        <v>4891612591514</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="39" t="s">
+      <c r="C7" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="52" t="n">
+      <c r="F7" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="52" t="n">
+      <c r="I7" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="52" t="n">
+      <c r="J7" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AMI5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="39" t="s">
+      <c r="K7" s="56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="39" t="n">
-        <v>4891612591514</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="52" t="n">
+      <c r="C8" s="59" t="n">
+        <v>4891609810000</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="AMI6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="39" t="s">
+      <c r="I8" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="52" t="n">
+      <c r="D10" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="52" t="n">
+      <c r="I10" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="52" t="n">
+      <c r="J10" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="K7" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="AMI7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="AMI8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="AMI9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="AMI10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId2" display="Lactacyd All Day Care Daily Feminine Wash 250ml"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Projects/SANOFIHK/Data/Template.xlsx
+++ b/Projects/SANOFIHK/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1504,7 +1504,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2971440</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1549,7 +1549,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2971440</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1594,7 +1594,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2971440</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1639,7 +1639,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2971440</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1684,7 +1684,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2971440</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1729,7 +1729,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2971440</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1779,7 +1779,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1523520</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1824,7 +1824,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1523520</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1869,7 +1869,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1523520</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1914,7 +1914,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1523520</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3006,10 +3006,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="L2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="L3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
@@ -3362,10 +3362,6 @@
       <c r="K10" s="21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3394,7 +3390,7 @@
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -3543,7 +3539,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -3606,7 +3602,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -3984,8 +3980,8 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Projects/SANOFIHK/Data/Template.xlsx
+++ b/Projects/SANOFIHK/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1127,7 +1127,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1151,16 +1151,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1221,7 +1217,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1229,11 +1225,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1253,7 +1249,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1261,7 +1257,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1305,7 +1301,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1317,11 +1313,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1385,10 +1381,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1405,7 +1397,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1413,20 +1405,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1502,9 +1493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2971440</xdr:colOff>
+      <xdr:colOff>2971080</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1514,7 +1505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8800560" cy="6349320"/>
+          <a:ext cx="8838360" cy="6348960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1547,9 +1538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2971440</xdr:colOff>
+      <xdr:colOff>2971080</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1559,7 +1550,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8800560" cy="6349320"/>
+          <a:ext cx="8838360" cy="6348960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1592,9 +1583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2971440</xdr:colOff>
+      <xdr:colOff>2971080</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1604,7 +1595,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8800560" cy="6349320"/>
+          <a:ext cx="8838360" cy="6348960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1637,9 +1628,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2971440</xdr:colOff>
+      <xdr:colOff>2971080</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1649,7 +1640,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8800560" cy="6349320"/>
+          <a:ext cx="8838360" cy="6348960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1682,9 +1673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2971440</xdr:colOff>
+      <xdr:colOff>2971080</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1694,7 +1685,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8800560" cy="6349320"/>
+          <a:ext cx="8838360" cy="6348960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1727,9 +1718,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2971440</xdr:colOff>
+      <xdr:colOff>2971080</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1739,7 +1730,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8800560" cy="6349320"/>
+          <a:ext cx="8838360" cy="6348960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1777,9 +1768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1523520</xdr:colOff>
+      <xdr:colOff>1523160</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1789,7 +1780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7714440" cy="6349320"/>
+          <a:ext cx="7761960" cy="6348960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1822,9 +1813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1523520</xdr:colOff>
+      <xdr:colOff>1523160</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1834,7 +1825,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7714440" cy="6349320"/>
+          <a:ext cx="7761960" cy="6348960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1867,9 +1858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1523520</xdr:colOff>
+      <xdr:colOff>1523160</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1879,7 +1870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7714440" cy="6349320"/>
+          <a:ext cx="7761960" cy="6348960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1912,9 +1903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1523520</xdr:colOff>
+      <xdr:colOff>1523160</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1924,7 +1915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7714440" cy="6349320"/>
+          <a:ext cx="7761960" cy="6348960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1962,9 +1953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1929960</xdr:colOff>
+      <xdr:colOff>1929600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1974,7 +1965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7616160" cy="6351480"/>
+          <a:ext cx="7673040" cy="6351120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2007,9 +1998,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1929960</xdr:colOff>
+      <xdr:colOff>1929600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2019,7 +2010,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7616160" cy="6351480"/>
+          <a:ext cx="7673040" cy="6351120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2052,9 +2043,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1929960</xdr:colOff>
+      <xdr:colOff>1929600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2064,7 +2055,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7616160" cy="6351480"/>
+          <a:ext cx="7673040" cy="6351120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2097,9 +2088,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1929960</xdr:colOff>
+      <xdr:colOff>1929600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2109,7 +2100,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7616160" cy="6351480"/>
+          <a:ext cx="7673040" cy="6351120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2142,9 +2133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1929960</xdr:colOff>
+      <xdr:colOff>1929600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2154,7 +2145,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7616160" cy="6351480"/>
+          <a:ext cx="7673040" cy="6351120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2192,9 +2183,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>431280</xdr:colOff>
+      <xdr:colOff>430920</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2204,7 +2195,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8022600" cy="6352560"/>
+          <a:ext cx="8079480" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2237,9 +2228,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>431280</xdr:colOff>
+      <xdr:colOff>430920</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2249,7 +2240,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8022600" cy="6352560"/>
+          <a:ext cx="8079480" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2282,9 +2273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>431280</xdr:colOff>
+      <xdr:colOff>430920</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2294,7 +2285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8022600" cy="6352560"/>
+          <a:ext cx="8079480" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2327,9 +2318,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>431280</xdr:colOff>
+      <xdr:colOff>430920</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2339,7 +2330,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8022600" cy="6352560"/>
+          <a:ext cx="8079480" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2372,9 +2363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>431280</xdr:colOff>
+      <xdr:colOff>430920</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2384,7 +2375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8022600" cy="6352560"/>
+          <a:ext cx="8079480" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2417,9 +2408,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>431280</xdr:colOff>
+      <xdr:colOff>430920</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2429,7 +2420,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8022600" cy="6352560"/>
+          <a:ext cx="8079480" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2467,9 +2458,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1041120</xdr:colOff>
+      <xdr:colOff>1040760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2479,7 +2470,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7851240" cy="6351480"/>
+          <a:ext cx="7898760" cy="6351120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2512,9 +2503,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1041120</xdr:colOff>
+      <xdr:colOff>1040760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2524,7 +2515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7851240" cy="6351480"/>
+          <a:ext cx="7898760" cy="6351120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2557,9 +2548,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1041120</xdr:colOff>
+      <xdr:colOff>1040760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2569,7 +2560,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7851240" cy="6351480"/>
+          <a:ext cx="7898760" cy="6351120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2602,9 +2593,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1041120</xdr:colOff>
+      <xdr:colOff>1040760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2614,7 +2605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7851240" cy="6351480"/>
+          <a:ext cx="7898760" cy="6351120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2647,9 +2638,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1041120</xdr:colOff>
+      <xdr:colOff>1040760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2659,7 +2650,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7851240" cy="6351480"/>
+          <a:ext cx="7898760" cy="6351120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2692,9 +2683,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1041120</xdr:colOff>
+      <xdr:colOff>1040760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2704,7 +2695,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7851240" cy="6351480"/>
+          <a:ext cx="7898760" cy="6351120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2744,13 +2735,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3008,18 +2999,18 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.78542510121457"/>
   </cols>
@@ -3396,11 +3387,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -3608,11 +3599,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1023" min="8" style="35" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
@@ -3690,19 +3681,19 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="29.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -3823,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3978,7 +3969,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
@@ -3986,12 +3977,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1022" min="8" style="14" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
   </cols>
@@ -4068,16 +4059,16 @@
       <c r="G3" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="56" t="n">
+      <c r="H3" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="I3" s="56" t="n">
+      <c r="I3" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="56" t="n">
+      <c r="J3" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="K3" s="56" t="n">
+      <c r="K3" s="14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4103,16 +4094,16 @@
       <c r="G4" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="56" t="n">
+      <c r="H4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4138,16 +4129,16 @@
       <c r="G5" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="56" t="n">
+      <c r="H5" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="56" t="n">
+      <c r="I5" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="56" t="n">
+      <c r="J5" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="56" t="n">
+      <c r="K5" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4173,16 +4164,16 @@
       <c r="G6" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="56" t="n">
+      <c r="H6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4208,33 +4199,33 @@
       <c r="G7" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="56" t="n">
+      <c r="H7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="56" t="n">
+      <c r="I7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="56" t="n">
+      <c r="J7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K7" s="56" t="n">
+      <c r="K7" s="14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="59" t="n">
+      <c r="C8" s="58" t="n">
         <v>4891609810000</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="59" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="50" t="n">
@@ -4243,33 +4234,33 @@
       <c r="G8" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="56" t="n">
+      <c r="H8" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="56" t="n">
+      <c r="I8" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="56" t="n">
+      <c r="J8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="59" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="50" t="n">
@@ -4278,33 +4269,33 @@
       <c r="G9" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="56" t="n">
+      <c r="H9" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="56" t="n">
+      <c r="I9" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="56" t="n">
+      <c r="J9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="59" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="50" t="n">
@@ -4313,21 +4304,18 @@
       <c r="G10" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="56" t="n">
+      <c r="H10" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="56" t="n">
+      <c r="I10" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="56" t="n">
+      <c r="J10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Projects/SANOFIHK/Data/Template.xlsx
+++ b/Projects/SANOFIHK/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1493,9 +1493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2971080</xdr:colOff>
+      <xdr:colOff>2970720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1505,7 +1505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8838360" cy="6348960"/>
+          <a:ext cx="8885520" cy="6348600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1538,9 +1538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2971080</xdr:colOff>
+      <xdr:colOff>2970720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1550,7 +1550,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8838360" cy="6348960"/>
+          <a:ext cx="8885520" cy="6348600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1583,9 +1583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2971080</xdr:colOff>
+      <xdr:colOff>2970720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1595,7 +1595,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8838360" cy="6348960"/>
+          <a:ext cx="8885520" cy="6348600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1628,9 +1628,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2971080</xdr:colOff>
+      <xdr:colOff>2970720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1640,7 +1640,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8838360" cy="6348960"/>
+          <a:ext cx="8885520" cy="6348600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1673,9 +1673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2971080</xdr:colOff>
+      <xdr:colOff>2970720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1685,7 +1685,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8838360" cy="6348960"/>
+          <a:ext cx="8885520" cy="6348600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1718,9 +1718,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2971080</xdr:colOff>
+      <xdr:colOff>2970720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1730,7 +1730,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8838360" cy="6348960"/>
+          <a:ext cx="8885520" cy="6348600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1768,9 +1768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1780,7 +1780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7761960" cy="6348960"/>
+          <a:ext cx="7809120" cy="6348600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1813,9 +1813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1825,7 +1825,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7761960" cy="6348960"/>
+          <a:ext cx="7809120" cy="6348600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1858,9 +1858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1870,7 +1870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7761960" cy="6348960"/>
+          <a:ext cx="7809120" cy="6348600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1903,9 +1903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1523160</xdr:colOff>
+      <xdr:colOff>1522800</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1915,7 +1915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7761960" cy="6348960"/>
+          <a:ext cx="7809120" cy="6348600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1953,9 +1953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1929600</xdr:colOff>
+      <xdr:colOff>1929240</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1965,7 +1965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7673040" cy="6351120"/>
+          <a:ext cx="7729920" cy="6350760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1998,9 +1998,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1929600</xdr:colOff>
+      <xdr:colOff>1929240</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2010,7 +2010,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7673040" cy="6351120"/>
+          <a:ext cx="7729920" cy="6350760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2043,9 +2043,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1929600</xdr:colOff>
+      <xdr:colOff>1929240</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2055,7 +2055,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7673040" cy="6351120"/>
+          <a:ext cx="7729920" cy="6350760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2088,9 +2088,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1929600</xdr:colOff>
+      <xdr:colOff>1929240</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2100,7 +2100,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7673040" cy="6351120"/>
+          <a:ext cx="7729920" cy="6350760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2133,9 +2133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1929600</xdr:colOff>
+      <xdr:colOff>1929240</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2145,7 +2145,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7673040" cy="6351120"/>
+          <a:ext cx="7729920" cy="6350760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2183,9 +2183,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>430920</xdr:colOff>
+      <xdr:colOff>430560</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2195,7 +2195,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8079480" cy="6352200"/>
+          <a:ext cx="8136000" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2228,9 +2228,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>430920</xdr:colOff>
+      <xdr:colOff>430560</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2240,7 +2240,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8079480" cy="6352200"/>
+          <a:ext cx="8136000" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2273,9 +2273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>430920</xdr:colOff>
+      <xdr:colOff>430560</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2285,7 +2285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8079480" cy="6352200"/>
+          <a:ext cx="8136000" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2318,9 +2318,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>430920</xdr:colOff>
+      <xdr:colOff>430560</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2330,7 +2330,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8079480" cy="6352200"/>
+          <a:ext cx="8136000" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2363,9 +2363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>430920</xdr:colOff>
+      <xdr:colOff>430560</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2375,7 +2375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8079480" cy="6352200"/>
+          <a:ext cx="8136000" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2408,9 +2408,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>430920</xdr:colOff>
+      <xdr:colOff>430560</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2420,7 +2420,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8079480" cy="6352200"/>
+          <a:ext cx="8136000" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2458,9 +2458,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1040760</xdr:colOff>
+      <xdr:colOff>1040400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2470,7 +2470,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7898760" cy="6351120"/>
+          <a:ext cx="7945920" cy="6350760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2503,9 +2503,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1040760</xdr:colOff>
+      <xdr:colOff>1040400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2515,7 +2515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7898760" cy="6351120"/>
+          <a:ext cx="7945920" cy="6350760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2548,9 +2548,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1040760</xdr:colOff>
+      <xdr:colOff>1040400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2560,7 +2560,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7898760" cy="6351120"/>
+          <a:ext cx="7945920" cy="6350760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2593,9 +2593,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1040760</xdr:colOff>
+      <xdr:colOff>1040400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2605,7 +2605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7898760" cy="6351120"/>
+          <a:ext cx="7945920" cy="6350760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2638,9 +2638,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1040760</xdr:colOff>
+      <xdr:colOff>1040400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2650,7 +2650,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7898760" cy="6351120"/>
+          <a:ext cx="7945920" cy="6350760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2683,9 +2683,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1040760</xdr:colOff>
+      <xdr:colOff>1040400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2695,7 +2695,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7898760" cy="6351120"/>
+          <a:ext cx="7945920" cy="6350760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2735,13 +2735,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3005,12 +3005,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.78542510121457"/>
   </cols>
@@ -3387,11 +3387,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -3599,11 +3599,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1023" min="8" style="35" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
@@ -3681,18 +3681,18 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="14" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.78542510121457"/>
   </cols>
@@ -3971,18 +3971,18 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1022" min="8" style="14" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
   </cols>
@@ -4115,7 +4115,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="55" t="n">
-        <v>4891612591514</v>
+        <v>4891612591521</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>45</v>
